--- a/lu_hs_g.xlsx
+++ b/lu_hs_g.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Siddarth\Documents\GitHub\Matrix-Calculator\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="340" yWindow="0" windowWidth="25360" windowHeight="14300" tabRatio="500"/>
+    <workbookView xWindow="336" yWindow="0" windowWidth="25356" windowHeight="14304" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>LU</t>
   </si>
@@ -28,9 +33,6 @@
   </si>
   <si>
     <t>Givens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n = </t>
   </si>
 </sst>
 </file>
@@ -95,7 +97,2733 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Errors</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> in Calculating Hx = b Using Three Methods of Factorization</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>LU Factorizations</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2.7800000000000003E-17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.7800000000000003E-17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2500000000000005E-17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3099999999999995E-16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0000000000000002E-15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2100000000000001E-15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1200000000000001E-14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6699999999999998E-14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2699999999999999E-13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5599999999999999E-13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.0099999999999999E-13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.6700000000000001E-13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.0500000000000001E-13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0900000000000001E-14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.25E-14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.2999999999999998E-14</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.0200000000000006E-15</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.02E-14</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.6700000000000001E-15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Householder Reflections</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2.7800000000000003E-17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3300000000000005E-17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2500000000000005E-17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0899999999999999E-16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3399999999999998E-15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3199999999999998E-15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5400000000000001E-14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0999999999999997E-14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0500000000000003E-14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.84E-13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4500000000000002E-13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5299999999999999E-13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.6800000000000002E-14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5999999999999996E-13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7399999999999999E-13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.06E-13</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.1899999999999997E-14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8200000000000001E-14</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8300000000000002E-14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Givens Rotations</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>5.5500000000000002E-17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.7800000000000003E-17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8399999999999998E-16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6699999999999996E-17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7299999999999999E-16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.21E-14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.62E-15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8200000000000001E-13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.89E-14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7000000000000001E-13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.2800000000000001E-13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.24E-11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.78E-13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.6499999999999999E-14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5200000000000001E-13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.4500000000000006E-14</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.1800000000000001E-13</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.9599999999999997E-15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.6100000000000007E-15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="331186768"/>
+        <c:axId val="331187944"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="331186768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="331187944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="331187944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="331186768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>LU Factorizations</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2.7800000000000003E-17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.7800000000000003E-17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2500000000000005E-17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3099999999999995E-16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0000000000000002E-15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2100000000000001E-15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1200000000000001E-14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6699999999999998E-14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2699999999999999E-13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5599999999999999E-13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.0099999999999999E-13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.6700000000000001E-13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.0500000000000001E-13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0900000000000001E-14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.25E-14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.2999999999999998E-14</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.0200000000000006E-15</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.02E-14</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.6700000000000001E-15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Householder Reflections</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2.7800000000000003E-17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3300000000000005E-17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2500000000000005E-17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0899999999999999E-16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3399999999999998E-15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3199999999999998E-15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5400000000000001E-14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0999999999999997E-14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0500000000000003E-14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.84E-13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4500000000000002E-13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5299999999999999E-13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.6800000000000002E-14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5999999999999996E-13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7399999999999999E-13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.06E-13</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.1899999999999997E-14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8200000000000001E-14</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8300000000000002E-14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Givens Rotations</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>5.5500000000000002E-17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.7800000000000003E-17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8399999999999998E-16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6699999999999996E-17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7299999999999999E-16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.21E-14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.62E-15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8200000000000001E-13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.89E-14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7000000000000001E-13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.2800000000000001E-13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.24E-11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.78E-13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.6499999999999999E-14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5200000000000001E-13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.4500000000000006E-14</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.1800000000000001E-13</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.9599999999999997E-15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.6100000000000007E-15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="429303776"/>
+        <c:axId val="429304168"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="429303776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="429304168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="429304168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="429303776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -423,15 +3151,12 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -442,7 +3167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -456,7 +3181,7 @@
         <v>5.5500000000000002E-17</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -470,7 +3195,7 @@
         <v>-2.7800000000000003E-17</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -484,7 +3209,7 @@
         <v>2.8399999999999998E-16</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -498,7 +3223,7 @@
         <v>8.6699999999999996E-17</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -512,7 +3237,7 @@
         <v>6.7299999999999999E-16</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -526,7 +3251,7 @@
         <v>1.21E-14</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -540,7 +3265,7 @@
         <v>7.62E-15</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -554,7 +3279,7 @@
         <v>1.8200000000000001E-13</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -568,7 +3293,7 @@
         <v>9.89E-14</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -582,7 +3307,7 @@
         <v>2.7000000000000001E-13</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -596,7 +3321,7 @@
         <v>8.2800000000000001E-13</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -610,7 +3335,7 @@
         <v>1.24E-11</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -624,7 +3349,7 @@
         <v>1.78E-13</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -638,7 +3363,7 @@
         <v>5.6499999999999999E-14</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -652,7 +3377,7 @@
         <v>3.5200000000000001E-13</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -666,7 +3391,7 @@
         <v>8.4500000000000006E-14</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -680,7 +3405,7 @@
         <v>2.1800000000000001E-13</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -694,7 +3419,7 @@
         <v>3.9599999999999997E-15</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -711,6 +3436,7 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/lu_hs_g.xlsx
+++ b/lu_hs_g.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>LU</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>Givens</t>
+  </si>
+  <si>
+    <t>LU - LU - H</t>
   </si>
 </sst>
 </file>
@@ -295,7 +298,7 @@
                   <c:v>2.7800000000000003E-17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.7800000000000003E-17</c:v>
+                  <c:v>2.7800000000000003E-17</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>6.2500000000000005E-17</c:v>
@@ -304,7 +307,7 @@
                   <c:v>5.3099999999999995E-16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0000000000000002E-15</c:v>
+                  <c:v>2.0099999999999999E-15</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3.2100000000000001E-15</c:v>
@@ -623,7 +626,7 @@
                   <c:v>5.5500000000000002E-17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.7800000000000003E-17</c:v>
+                  <c:v>2.7800000000000003E-17</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.8399999999999998E-16</c:v>
@@ -689,11 +692,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="331186768"/>
-        <c:axId val="331187944"/>
+        <c:axId val="253474048"/>
+        <c:axId val="253474440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="331186768"/>
+        <c:axId val="253474048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -781,12 +784,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331187944"/>
+        <c:crossAx val="253474440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="331187944"/>
+        <c:axId val="253474440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -874,7 +877,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331186768"/>
+        <c:crossAx val="253474048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1081,7 +1084,7 @@
                   <c:v>2.7800000000000003E-17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.7800000000000003E-17</c:v>
+                  <c:v>2.7800000000000003E-17</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>6.2500000000000005E-17</c:v>
@@ -1090,7 +1093,7 @@
                   <c:v>5.3099999999999995E-16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0000000000000002E-15</c:v>
+                  <c:v>2.0099999999999999E-15</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3.2100000000000001E-15</c:v>
@@ -1409,7 +1412,7 @@
                   <c:v>5.5500000000000002E-17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.7800000000000003E-17</c:v>
+                  <c:v>2.7800000000000003E-17</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.8399999999999998E-16</c:v>
@@ -1475,11 +1478,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="429303776"/>
-        <c:axId val="429304168"/>
+        <c:axId val="253466992"/>
+        <c:axId val="253468560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="429303776"/>
+        <c:axId val="253466992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1536,12 +1539,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429304168"/>
+        <c:crossAx val="253468560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="429304168"/>
+        <c:axId val="253468560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1598,7 +1601,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429303776"/>
+        <c:crossAx val="253466992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2763,16 +2766,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3148,15 +3151,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3166,8 +3169,17 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3180,22 +3192,40 @@
       <c r="D3" s="1">
         <v>5.5500000000000002E-17</v>
       </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.2200000000000001E-16</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>-2.7800000000000003E-17</v>
+        <v>2.7800000000000003E-17</v>
       </c>
       <c r="C4" s="1">
         <v>8.3300000000000005E-17</v>
       </c>
       <c r="D4" s="1">
-        <v>-2.7800000000000003E-17</v>
+        <v>2.7800000000000003E-17</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6.6599999999999998E-16</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3208,8 +3238,17 @@
       <c r="D5" s="1">
         <v>2.8399999999999998E-16</v>
       </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>6.6599999999999998E-16</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3222,13 +3261,22 @@
       <c r="D6" s="1">
         <v>8.6699999999999996E-17</v>
       </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.11E-16</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.3900000000000002E-17</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>2.0000000000000002E-15</v>
+        <v>2.0099999999999999E-15</v>
       </c>
       <c r="C7" s="1">
         <v>3.3399999999999998E-15</v>
@@ -3236,8 +3284,17 @@
       <c r="D7" s="1">
         <v>6.7299999999999999E-16</v>
       </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>6.6599999999999998E-16</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1.3900000000000002E-17</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3251,7 +3308,7 @@
         <v>1.21E-14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3265,7 +3322,7 @@
         <v>7.62E-15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3279,7 +3336,7 @@
         <v>1.8200000000000001E-13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3293,7 +3350,7 @@
         <v>9.89E-14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3307,7 +3364,7 @@
         <v>2.7000000000000001E-13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3321,7 +3378,7 @@
         <v>8.2800000000000001E-13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3335,7 +3392,7 @@
         <v>1.24E-11</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3349,7 +3406,7 @@
         <v>1.78E-13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>

--- a/lu_hs_g.xlsx
+++ b/lu_hs_g.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Siddarth\Documents\GitHub\Matrix-Calculator\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="336" yWindow="0" windowWidth="25356" windowHeight="14304" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,8 +79,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -93,9 +90,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -165,26 +164,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -229,61 +208,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -295,61 +274,61 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>2.7800000000000003E-17</c:v>
+                  <c:v>2.78E-17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7800000000000003E-17</c:v>
+                  <c:v>2.78E-17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.2500000000000005E-17</c:v>
+                  <c:v>6.25E-17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.3099999999999995E-16</c:v>
+                  <c:v>5.31E-16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0099999999999999E-15</c:v>
+                  <c:v>2.01E-15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2100000000000001E-15</c:v>
+                  <c:v>3.21E-15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1200000000000001E-14</c:v>
+                  <c:v>1.12E-14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.6699999999999998E-14</c:v>
+                  <c:v>3.67E-14</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2699999999999999E-13</c:v>
+                  <c:v>1.27E-13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5599999999999999E-13</c:v>
+                  <c:v>1.56E-13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.0099999999999999E-13</c:v>
+                  <c:v>5.01E-13</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.6700000000000001E-13</c:v>
+                  <c:v>5.67E-13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.0500000000000001E-13</c:v>
+                  <c:v>3.05E-13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.0900000000000001E-14</c:v>
+                  <c:v>2.09E-14</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>3.25E-14</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.2999999999999998E-14</c:v>
+                  <c:v>3.3E-14</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.0200000000000006E-15</c:v>
+                  <c:v>9.02E-15</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1.02E-14</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.6700000000000001E-15</c:v>
+                  <c:v>3.67E-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -393,61 +372,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -459,61 +438,61 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>2.7800000000000003E-17</c:v>
+                  <c:v>2.78E-17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3300000000000005E-17</c:v>
+                  <c:v>8.33E-17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.2500000000000005E-17</c:v>
+                  <c:v>6.25E-17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0899999999999999E-16</c:v>
+                  <c:v>3.09E-16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3399999999999998E-15</c:v>
+                  <c:v>3.34E-15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3199999999999998E-15</c:v>
+                  <c:v>2.32E-15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5400000000000001E-14</c:v>
+                  <c:v>2.54E-14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0999999999999997E-14</c:v>
+                  <c:v>5.1E-14</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.0500000000000003E-14</c:v>
+                  <c:v>7.05E-14</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.84E-13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.4500000000000002E-13</c:v>
+                  <c:v>2.45E-13</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.5299999999999999E-13</c:v>
+                  <c:v>4.53E-13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.6800000000000002E-14</c:v>
+                  <c:v>5.68E-14</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.5999999999999996E-13</c:v>
+                  <c:v>4.6E-13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.7399999999999999E-13</c:v>
+                  <c:v>2.74E-13</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1.06E-13</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.1899999999999997E-14</c:v>
+                  <c:v>8.19E-14</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.8200000000000001E-14</c:v>
+                  <c:v>1.82E-14</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.8300000000000002E-14</c:v>
+                  <c:v>1.83E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -557,61 +536,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -623,19 +602,19 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>5.5500000000000002E-17</c:v>
+                  <c:v>5.55E-17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7800000000000003E-17</c:v>
+                  <c:v>2.78E-17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.8399999999999998E-16</c:v>
+                  <c:v>2.84E-16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.6699999999999996E-17</c:v>
+                  <c:v>8.67E-17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.7299999999999999E-16</c:v>
+                  <c:v>6.73E-16</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.21E-14</c:v>
@@ -644,16 +623,16 @@
                   <c:v>7.62E-15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.8200000000000001E-13</c:v>
+                  <c:v>1.82E-13</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>9.89E-14</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.7000000000000001E-13</c:v>
+                  <c:v>2.7E-13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.2800000000000001E-13</c:v>
+                  <c:v>8.28E-13</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1.24E-11</c:v>
@@ -662,22 +641,22 @@
                   <c:v>1.78E-13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.6499999999999999E-14</c:v>
+                  <c:v>5.65E-14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.5200000000000001E-13</c:v>
+                  <c:v>3.52E-13</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.4500000000000006E-14</c:v>
+                  <c:v>8.45E-14</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.1800000000000001E-13</c:v>
+                  <c:v>2.18E-13</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.9599999999999997E-15</c:v>
+                  <c:v>3.96E-15</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.6100000000000007E-15</c:v>
+                  <c:v>8.61E-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -692,11 +671,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="253474048"/>
-        <c:axId val="253474440"/>
+        <c:axId val="2075108776"/>
+        <c:axId val="2039101576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="253474048"/>
+        <c:axId val="2075108776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -784,12 +763,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="253474440"/>
+        <c:crossAx val="2039101576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="253474440"/>
+        <c:axId val="2039101576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -877,7 +856,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="253474048"/>
+        <c:crossAx val="2075108776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1015,61 +994,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1081,61 +1060,61 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>2.7800000000000003E-17</c:v>
+                  <c:v>2.78E-17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7800000000000003E-17</c:v>
+                  <c:v>2.78E-17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.2500000000000005E-17</c:v>
+                  <c:v>6.25E-17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.3099999999999995E-16</c:v>
+                  <c:v>5.31E-16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0099999999999999E-15</c:v>
+                  <c:v>2.01E-15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2100000000000001E-15</c:v>
+                  <c:v>3.21E-15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1200000000000001E-14</c:v>
+                  <c:v>1.12E-14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.6699999999999998E-14</c:v>
+                  <c:v>3.67E-14</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2699999999999999E-13</c:v>
+                  <c:v>1.27E-13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5599999999999999E-13</c:v>
+                  <c:v>1.56E-13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.0099999999999999E-13</c:v>
+                  <c:v>5.01E-13</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.6700000000000001E-13</c:v>
+                  <c:v>5.67E-13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.0500000000000001E-13</c:v>
+                  <c:v>3.05E-13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.0900000000000001E-14</c:v>
+                  <c:v>2.09E-14</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>3.25E-14</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.2999999999999998E-14</c:v>
+                  <c:v>3.3E-14</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.0200000000000006E-15</c:v>
+                  <c:v>9.02E-15</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1.02E-14</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.6700000000000001E-15</c:v>
+                  <c:v>3.67E-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1179,61 +1158,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1245,61 +1224,61 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>2.7800000000000003E-17</c:v>
+                  <c:v>2.78E-17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3300000000000005E-17</c:v>
+                  <c:v>8.33E-17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.2500000000000005E-17</c:v>
+                  <c:v>6.25E-17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0899999999999999E-16</c:v>
+                  <c:v>3.09E-16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3399999999999998E-15</c:v>
+                  <c:v>3.34E-15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3199999999999998E-15</c:v>
+                  <c:v>2.32E-15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5400000000000001E-14</c:v>
+                  <c:v>2.54E-14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0999999999999997E-14</c:v>
+                  <c:v>5.1E-14</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.0500000000000003E-14</c:v>
+                  <c:v>7.05E-14</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.84E-13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.4500000000000002E-13</c:v>
+                  <c:v>2.45E-13</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.5299999999999999E-13</c:v>
+                  <c:v>4.53E-13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.6800000000000002E-14</c:v>
+                  <c:v>5.68E-14</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.5999999999999996E-13</c:v>
+                  <c:v>4.6E-13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.7399999999999999E-13</c:v>
+                  <c:v>2.74E-13</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1.06E-13</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.1899999999999997E-14</c:v>
+                  <c:v>8.19E-14</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.8200000000000001E-14</c:v>
+                  <c:v>1.82E-14</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.8300000000000002E-14</c:v>
+                  <c:v>1.83E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1343,61 +1322,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1409,19 +1388,19 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>5.5500000000000002E-17</c:v>
+                  <c:v>5.55E-17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7800000000000003E-17</c:v>
+                  <c:v>2.78E-17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.8399999999999998E-16</c:v>
+                  <c:v>2.84E-16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.6699999999999996E-17</c:v>
+                  <c:v>8.67E-17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.7299999999999999E-16</c:v>
+                  <c:v>6.73E-16</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.21E-14</c:v>
@@ -1430,16 +1409,16 @@
                   <c:v>7.62E-15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.8200000000000001E-13</c:v>
+                  <c:v>1.82E-13</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>9.89E-14</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.7000000000000001E-13</c:v>
+                  <c:v>2.7E-13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.2800000000000001E-13</c:v>
+                  <c:v>8.28E-13</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1.24E-11</c:v>
@@ -1448,22 +1427,22 @@
                   <c:v>1.78E-13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.6499999999999999E-14</c:v>
+                  <c:v>5.65E-14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.5200000000000001E-13</c:v>
+                  <c:v>3.52E-13</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.4500000000000006E-14</c:v>
+                  <c:v>8.45E-14</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.1800000000000001E-13</c:v>
+                  <c:v>2.18E-13</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.9599999999999997E-15</c:v>
+                  <c:v>3.96E-15</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.6100000000000007E-15</c:v>
+                  <c:v>8.61E-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1478,11 +1457,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="253466992"/>
-        <c:axId val="253468560"/>
+        <c:axId val="2072954344"/>
+        <c:axId val="2075074504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="253466992"/>
+        <c:axId val="2072954344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1539,12 +1518,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="253468560"/>
+        <c:crossAx val="2075074504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="253468560"/>
+        <c:axId val="2075074504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1601,7 +1580,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="253466992"/>
+        <c:crossAx val="2072954344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3154,12 +3133,12 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3179,7 +3158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3202,7 +3181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3225,7 +3204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3248,7 +3227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3271,7 +3250,7 @@
         <v>1.3900000000000002E-17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3294,7 +3273,7 @@
         <v>1.3900000000000002E-17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3307,8 +3286,17 @@
       <c r="D8" s="1">
         <v>1.21E-14</v>
       </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.5499999999999999E-15</v>
+      </c>
+      <c r="G8" s="1">
+        <v>8.3300000000000005E-17</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3321,8 +3309,17 @@
       <c r="D9" s="1">
         <v>7.62E-15</v>
       </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1.3299999999999999E-15</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2.7800000000000003E-17</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3335,8 +3332,17 @@
       <c r="D10" s="1">
         <v>1.8200000000000001E-13</v>
       </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5.5500000000000002E-17</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4.1600000000000001E-17</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3349,8 +3355,17 @@
       <c r="D11" s="1">
         <v>9.89E-14</v>
       </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2.2200000000000001E-16</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4.1600000000000001E-17</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3363,8 +3378,17 @@
       <c r="D12" s="1">
         <v>2.7000000000000001E-13</v>
       </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>6.6599999999999998E-16</v>
+      </c>
+      <c r="G12" s="1">
+        <v>5.5500000000000002E-17</v>
+      </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3377,8 +3401,17 @@
       <c r="D13" s="1">
         <v>8.2800000000000001E-13</v>
       </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>8.3300000000000005E-17</v>
+      </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3391,8 +3424,17 @@
       <c r="D14" s="1">
         <v>1.24E-11</v>
       </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>4.4400000000000002E-16</v>
+      </c>
+      <c r="G14" s="1">
+        <v>8.3300000000000005E-17</v>
+      </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3405,8 +3447,17 @@
       <c r="D15" s="1">
         <v>1.78E-13</v>
       </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>6.6599999999999998E-16</v>
+      </c>
+      <c r="G15" s="1">
+        <v>8.3300000000000005E-17</v>
+      </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3419,8 +3470,17 @@
       <c r="D16" s="1">
         <v>5.6499999999999999E-14</v>
       </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>8.8800000000000003E-16</v>
+      </c>
+      <c r="G16" s="1">
+        <v>8.3300000000000005E-17</v>
+      </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3433,8 +3493,17 @@
       <c r="D17" s="1">
         <v>3.5200000000000001E-13</v>
       </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>6.6599999999999998E-16</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1.3899999999999999E-16</v>
+      </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3447,8 +3516,17 @@
       <c r="D18" s="1">
         <v>8.4500000000000006E-14</v>
       </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>8.8800000000000003E-16</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1.11E-16</v>
+      </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3461,8 +3539,17 @@
       <c r="D19" s="1">
         <v>2.1800000000000001E-13</v>
       </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1.7800000000000001E-15</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1.3899999999999999E-16</v>
+      </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3475,8 +3562,17 @@
       <c r="D20" s="1">
         <v>3.9599999999999997E-15</v>
       </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>4.4400000000000002E-16</v>
+      </c>
+      <c r="G20" s="1">
+        <v>8.3300000000000005E-17</v>
+      </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3488,6 +3584,15 @@
       </c>
       <c r="D21" s="1">
         <v>8.6100000000000007E-15</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1.11E-16</v>
+      </c>
+      <c r="G21" s="1">
+        <v>5.5500000000000002E-17</v>
       </c>
     </row>
   </sheetData>
